--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="9300"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="taskTypeInfo" sheetId="6" r:id="rId2"/>
+    <sheet name="getStatement" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>case_no</t>
   </si>
@@ -87,24 +88,106 @@
   <si>
     <t>expect_code</t>
   </si>
+  <si>
+    <t>taskTypeInfo_001</t>
+  </si>
+  <si>
+    <t>taskTypeInfo_success</t>
+  </si>
+  <si>
+    <t>Api/index/taskTypeInfo</t>
+  </si>
+  <si>
+    <t>page=bfaf3510014ac930edc63a63546ad5f2MQ%3D%3D&amp;type=f691971fbd6ae86a0080723aa4d96e76MzI%3D</t>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "msg": "请求成功",
+    "data": []
+}</t>
+  </si>
+  <si>
+    <t>taskTypeInfo_002</t>
+  </si>
+  <si>
+    <t>taskTypeInfo_error</t>
+  </si>
+  <si>
+    <t>page=&amp;type=f691971fbd6ae86a0080723aa4d96e76MzI%3D</t>
+  </si>
+  <si>
+    <t>{
+    "code": 301,
+    "msg": "page_参数不能为空",
+    "data": {}
+}</t>
+  </si>
+  <si>
+    <t>getStatement_001</t>
+  </si>
+  <si>
+    <t>getStatement_success</t>
+  </si>
+  <si>
+    <t>Api/Index/getStatement</t>
+  </si>
+  <si>
+    <t>p_id=caf1cb446be1635ff4e783df289bc979Njcz&amp;user_id=9a738449f667989fc95fa9a6e5b50a67MTU%3D</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "msg": "success",
+ "data": {
+  "statement_info": {
+   "statement_content": "Null",
+   "statement_path": "Null",
+   "is_show": 2
+  }
+ }
+}</t>
+  </si>
+  <si>
+    <t>getStatement_002</t>
+  </si>
+  <si>
+    <t>getStatement_error</t>
+  </si>
+  <si>
+    <t>p_id=&amp;user_id=9a738449f667989fc95fa9a6e5b50a67MTU%3D</t>
+  </si>
+  <si>
+    <t>{
+    "code": 301,
+    "msg": "p_id_参数不能为空",
+    "data": {}
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -114,74 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +212,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,9 +287,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,37 +339,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,18 +349,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,157 +397,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +540,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,32 +596,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,26 +632,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,137 +660,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,7 +800,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1091,16 +1177,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1150,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>10001</v>
+        <v>100001</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>16</v>
@@ -1187,7 +1273,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1223,27 +1309,151 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+    <row r="2" ht="67.5" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" spans="3:7">
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="G3" s="1"/>
+    <row r="3" ht="81" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>301</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" ht="14.25" spans="3:7">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="243" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>301</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -197,7 +197,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,124 +303,40 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -349,31 +349,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,37 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,109 +499,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,11 +543,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,36 +601,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,26 +630,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1159,7 +1159,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1272,8 +1272,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -98,13 +98,27 @@
     <t>Api/index/taskTypeInfo</t>
   </si>
   <si>
-    <t>page=bfaf3510014ac930edc63a63546ad5f2MQ%3D%3D&amp;type=f691971fbd6ae86a0080723aa4d96e76MzI%3D</t>
+    <t>page=bfaf3510014ac930edc63a63546ad5f2MQ%3D%3D&amp;type=c79314531c07d975cb5f1d0539444efeMjE%3D</t>
   </si>
   <si>
     <t>{
     "code": 200,
     "msg": "请求成功",
-    "data": []
+    "data": [
+        {
+            "id": "673",
+            "project_name": "1103001",
+            "is_group": "2",
+            "task_price": "0",
+            "type": "21",
+            "surplus_number": 38,
+            "participate_number": "6",
+            "token": "",
+            "is_token": "1",
+            "expire_time": "1606492799",
+            "stat": "1"
+        }
+    ]
 }</t>
   </si>
   <si>
@@ -170,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -204,15 +218,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,9 +316,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -257,31 +338,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,51 +353,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,181 +369,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,6 +554,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,6 +577,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,11 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,47 +654,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -648,10 +662,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +674,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1273,7 +1287,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1309,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="67.5" spans="1:7">
+    <row r="2" ht="409.5" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="taskTypeInfo" sheetId="6" r:id="rId2"/>
     <sheet name="getStatement" sheetId="7" r:id="rId3"/>
+    <sheet name="addProjectAudit" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>case_no</t>
   </si>
@@ -178,6 +179,28 @@
     "data": {}
 }</t>
   </si>
+  <si>
+    <t>addProjectAudit_001</t>
+  </si>
+  <si>
+    <t>addProjectAudit_success</t>
+  </si>
+  <si>
+    <t>Api/projectInfo/addProjectAudit</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "msg": "\u52a0\u5165\u9879\u76ee\u6210\u529f",
+ "data": {}
+}</t>
+  </si>
+  <si>
+    <t>addProjectAudit_002</t>
+  </si>
+  <si>
+    <t>addProjectAudit_error</t>
+  </si>
 </sst>
 </file>
 
@@ -218,82 +241,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,38 +376,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -363,25 +386,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,12 +536,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -411,7 +548,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,121 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,23 +583,56 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,50 +663,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,10 +685,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,144 +697,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1191,16 +1220,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1211,68 +1240,68 @@
       </c>
     </row>
     <row r="2" ht="138" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="110" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>100001</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="127" customHeight="1" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1286,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1301,62 +1330,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -1365,14 +1394,14 @@
       <c r="F3">
         <v>301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="3:7">
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1391,44 +1420,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="17.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="2" customWidth="1"/>
+    <col min="5" max="7" width="17.375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="243" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>301</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="7" width="25.125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="243" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
+    <row r="2" ht="94.5" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>30</v>
@@ -1440,18 +1559,18 @@
         <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" ht="94.5" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
+    <row r="3" ht="81" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="taskTypeInfo" sheetId="6" r:id="rId2"/>
     <sheet name="getStatement" sheetId="7" r:id="rId3"/>
     <sheet name="addProjectAudit" sheetId="8" r:id="rId4"/>
+    <sheet name="optionAgree" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>case_no</t>
   </si>
@@ -201,16 +202,48 @@
   <si>
     <t>addProjectAudit_error</t>
   </si>
+  <si>
+    <t>optionAgree_001</t>
+  </si>
+  <si>
+    <t>optionAgree_success</t>
+  </si>
+  <si>
+    <t>Api/ProjectInfo/optionAgree</t>
+  </si>
+  <si>
+    <t>user_id=22f0c8178750dbf7d263cf7e92e16327MTM%3D&amp;p_id=caf1cb446be1635ff4e783df289bc979Njcz&amp;stat=bfaf3510014ac930edc63a63546ad5f2MQ%3D%3D&amp;dir_name=a9a6989cc0b86ece13ad655a4cecca29VFRTMTEwMzAxX25ldw%3D%3D&amp;user_sign_name=22f0c8178750dbf7d263cf7e92e16327MTM%3D.png</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "msg": "ok",
+ "data": {}
+}</t>
+  </si>
+  <si>
+    <t>optionAgree_002</t>
+  </si>
+  <si>
+    <t>optionAgree_error</t>
+  </si>
+  <si>
+    <t>{
+    "code": 201,
+    "msg": "fail",
+    "data": {}
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -233,6 +266,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -241,14 +305,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,17 +352,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,39 +374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,16 +389,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,24 +403,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,187 +419,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,26 +613,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,7 +647,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,19 +655,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,16 +677,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,10 +718,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,133 +730,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1240,7 +1273,7 @@
       </c>
     </row>
     <row r="2" ht="138" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1255,15 +1288,15 @@
       <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="110" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1278,30 +1311,30 @@
       <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>100001</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="127" customHeight="1" spans="1:7">
-      <c r="A4" s="2"/>
+      <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1316,7 +1349,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1330,7 +1363,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1345,18 +1378,18 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1365,21 +1398,21 @@
       <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1394,14 +1427,14 @@
       <c r="F3">
         <v>301</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="3:7">
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1420,14 +1453,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="2" customWidth="1"/>
-    <col min="5" max="7" width="17.375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1442,56 +1475,56 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="243" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>301</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1506,8 +1539,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1517,7 +1550,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1532,10 +1565,10 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1583,6 +1616,98 @@
       </c>
       <c r="G3" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="17.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="135" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="135" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>201</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>case_no</t>
   </si>
@@ -203,6 +203,13 @@
     <t>addProjectAudit_error</t>
   </si>
   <si>
+    <t>{
+    "code": 1301,
+    "msg": "您已经报名了",
+    "data": {}
+}</t>
+  </si>
+  <si>
     <t>optionAgree_001</t>
   </si>
   <si>
@@ -240,10 +247,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -266,6 +273,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -281,6 +295,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -289,93 +395,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,21 +411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,181 +432,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +617,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -624,39 +649,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,6 +685,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -701,15 +717,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -718,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -730,142 +737,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1239,30 +1243,30 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.275" customWidth="1"/>
-    <col min="2" max="2" width="18.4583333333333" customWidth="1"/>
-    <col min="3" max="3" width="40.1833333333333" customWidth="1"/>
-    <col min="4" max="4" width="38.8166666666667" customWidth="1"/>
-    <col min="6" max="6" width="15.9083333333333" customWidth="1"/>
-    <col min="7" max="7" width="27.5416666666667" customWidth="1"/>
+    <col min="1" max="1" width="13.2777777777778" customWidth="1"/>
+    <col min="2" max="2" width="18.462962962963" customWidth="1"/>
+    <col min="3" max="3" width="40.1851851851852" customWidth="1"/>
+    <col min="4" max="4" width="38.8148148148148" customWidth="1"/>
+    <col min="6" max="6" width="15.9074074074074" customWidth="1"/>
+    <col min="7" max="7" width="27.537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1276,16 +1280,16 @@
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="1">
@@ -1299,16 +1303,16 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1">
@@ -1320,10 +1324,10 @@
     </row>
     <row r="4" ht="127" customHeight="1" spans="1:7">
       <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
@@ -1352,30 +1356,30 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.9083333333333" customWidth="1"/>
-    <col min="2" max="2" width="26.9083333333333" customWidth="1"/>
-    <col min="3" max="4" width="28.125" customWidth="1"/>
-    <col min="5" max="5" width="22.1833333333333" customWidth="1"/>
+    <col min="1" max="1" width="22.9074074074074" customWidth="1"/>
+    <col min="2" max="2" width="26.9074074074074" customWidth="1"/>
+    <col min="3" max="4" width="28.1296296296296" customWidth="1"/>
+    <col min="5" max="5" width="22.1851851851852" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="22.6333333333333" customWidth="1"/>
+    <col min="7" max="7" width="22.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1392,10 +1396,10 @@
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1408,17 +1412,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:7">
+    <row r="3" ht="86.4" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -1431,9 +1435,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="3:7">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+    <row r="4" spans="3:7">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
       <c r="G4" s="1"/>
     </row>
   </sheetData>
@@ -1451,11 +1455,11 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.375" style="1" customWidth="1"/>
+    <col min="1" max="3" width="17.3796296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.3796296296296" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1463,16 +1467,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1482,14 +1486,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="243" spans="1:7">
+    <row r="2" ht="259.2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1505,14 +1509,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="94.5" spans="1:7">
+    <row r="3" ht="100.8" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1539,13 +1543,13 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="25.125" style="1" customWidth="1"/>
+    <col min="1" max="7" width="25.1296296296296" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1553,16 +1557,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1572,8 +1576,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:7">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="100.8" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1595,27 +1599,27 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="86.4" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>301</v>
+        <v>1301</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1629,32 +1633,32 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="2" customWidth="1"/>
-    <col min="5" max="7" width="17.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1296296296296" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1664,50 +1668,50 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="135" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="144" spans="1:7">
+      <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="144" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" ht="135" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>201</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="3"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -273,10 +273,78 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -288,29 +356,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,77 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -426,187 +426,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,17 +623,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,21 +640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,7 +663,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,6 +685,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -725,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,133 +737,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1352,7 +1352,7 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1543,8 +1543,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>case_no</t>
   </si>
@@ -100,7 +100,7 @@
     <t>Api/index/taskTypeInfo</t>
   </si>
   <si>
-    <t>page=bfaf3510014ac930edc63a63546ad5f2MQ%3D%3D&amp;type=c79314531c07d975cb5f1d0539444efeMjE%3D</t>
+    <t>page=10&amp;type=21</t>
   </si>
   <si>
     <t>{
@@ -130,7 +130,7 @@
     <t>taskTypeInfo_error</t>
   </si>
   <si>
-    <t>page=&amp;type=f691971fbd6ae86a0080723aa4d96e76MzI%3D</t>
+    <t>page=&amp;type=21</t>
   </si>
   <si>
     <t>{
@@ -149,7 +149,7 @@
     <t>Api/Index/getStatement</t>
   </si>
   <si>
-    <t>p_id=caf1cb446be1635ff4e783df289bc979Njcz&amp;user_id=9a738449f667989fc95fa9a6e5b50a67MTU%3D</t>
+    <t>p_id=673&amp;user_id=15</t>
   </si>
   <si>
     <t>{
@@ -171,7 +171,7 @@
     <t>getStatement_error</t>
   </si>
   <si>
-    <t>p_id=&amp;user_id=9a738449f667989fc95fa9a6e5b50a67MTU%3D</t>
+    <t>p_id=&amp;user_id=15</t>
   </si>
   <si>
     <t>{
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>addProjectAudit_error</t>
+  </si>
+  <si>
+    <t>p_id=673z&amp;user_id=15</t>
   </si>
   <si>
     <t>{
@@ -247,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -274,6 +277,112 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -290,113 +399,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,13 +429,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,55 +537,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,109 +603,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +628,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,15 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -686,23 +695,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,76 +740,76 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -815,55 +818,55 @@
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,7 +1242,7 @@
   <sheetPr/>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1352,8 +1355,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1389,7 +1392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="409.5" spans="1:7">
+    <row r="2" ht="212" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -1452,7 +1455,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1544,7 +1547,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1610,7 +1613,7 @@
         <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1619,7 +1622,7 @@
         <v>1301</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1633,8 +1636,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1670,16 +1673,16 @@
     </row>
     <row r="2" ht="144" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1688,21 +1691,21 @@
         <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="144" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -1711,7 +1714,7 @@
         <v>201</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="getStatement" sheetId="7" r:id="rId3"/>
     <sheet name="addProjectAudit" sheetId="8" r:id="rId4"/>
     <sheet name="optionAgree" sheetId="9" r:id="rId5"/>
+    <sheet name="getCollect" sheetId="10" r:id="rId6"/>
+    <sheet name="collectProjectInfo" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
   <si>
     <t>case_no</t>
   </si>
@@ -244,16 +246,186 @@
     "data": {}
 }</t>
   </si>
+  <si>
+    <t>getCollect_001</t>
+  </si>
+  <si>
+    <t>getCollect_success</t>
+  </si>
+  <si>
+    <t>index.php/C_Api/Collect/getCollect</t>
+  </si>
+  <si>
+    <t>user_id=a478d255da28e02871e95c50d8b4a1c3OQ%3D%3D&amp;p_id=200a69872f24b2ff97be5026534829deNjgy&amp;type=6457975ff7c875a4c52f859fb4284ebdMg%3D%3D&amp;phone_sn=c3779a4d53644e53778c721d6c175ce1MzU1NDAzMTA2MDI3MjAx</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "msg": "\u8bf7\u6c42\u6210\u529f",
+ "data": {
+  "project_id": "682",
+  "package_id": "1210",
+  "dir_name": "TTS1207003_new",
+  "project_name": "1207003",
+  "sample_rate": "16000",
+  "bitrate_rate": false,
+  "type": "2",
+  "package_detail": [{
+   "file_id": "4790383",
+   "file_name": "G0026_00000001",
+   "file_content": "\u4fdd\u62a4\u7528\u6237\u9690\u79c1\u548c\u4fe1\u606f\u5b89\u5168",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }, {
+   "file_id": "4790384",
+   "file_name": "G0026_00000002",
+   "file_content": "\u65b0\u80fd\u6e90\u3001\u5171\u4eab\u5316\u548c\u667a\u80fd\u5316",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }, {
+   "file_id": "4790385",
+   "file_name": "G0026_00000003",
+   "file_content": "\u63d0\u5347\u670d\u52a1\u6807\u51c6",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }, {
+   "file_id": "4790387",
+   "file_name": "G0026_00000005",
+   "file_content": "\u53f3\u8f6c\u9a76\u5165\u4eac\u85cf\u9ad8\u901f\u8f85\u8def",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }, {
+   "file_id": "4790388",
+   "file_name": "G0026_00000006",
+   "file_content": "\u8bf7\u8d70\u4e2d\u95f4\u4e09\u8f66\u9053",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }, {
+   "file_id": "4790389",
+   "file_name": "G0026_00000007",
+   "file_content": "\u4e58\u5ba2\u6765\u4e0d\u53ca\u53d6\u51fa\u884c\u674e",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }, {
+   "file_id": "4790390",
+   "file_name": "G0026_00000008",
+   "file_content": "\u4e8b\u60c5\u600e\u4e48\u4f1a\u53d8\u6210\u8fd9\u6837",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }, {
+   "file_id": "4790391",
+   "file_name": "G0026_00000009",
+   "file_content": "\u6709\u7684\u65f6\u5019\u771f\u7684\u8ba9\u6211\u5f88\u4e3a\u96be",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }, {
+   "file_id": "4790392",
+   "file_name": "G0026_00000010",
+   "file_content": "\u8bf7\u6ce8\u610f\u4fdd\u6301\u8f66\u8ddd",
+   "min_time": "1",
+   "max_time": "30",
+   "reason": "\u8be5\u97f3\u9891\u6700\u5c0f\u5f55\u5236:1\u79d2\uff0c\u6700\u5927\u5f55\u5236\uff1a30\u79d2\uff1b\u4e0d\u5408\u683c\u539f\u56e0\uff1a0",
+   "stat": "0"
+  }],
+  "token": "",
+  "before_time": "300",
+  "later_time": "300"
+ }
+}</t>
+  </si>
+  <si>
+    <t>getCollect_002</t>
+  </si>
+  <si>
+    <t>getCollect_no_type</t>
+  </si>
+  <si>
+    <t>user_id=a478d255da28e02871e95c50d8b4a1c3OQ%3D%3D&amp;p_id=200a69872f24b2ff97be5026534829deNjgy&amp;type=&amp;phone_sn=c3779a4d53644e53778c721d6c175ce1MzU1NDAzMTA2MDI3MjAx</t>
+  </si>
+  <si>
+    <t>{
+    "code": 301,
+    "msg": "type_参数不能为空",
+    "data": {}
+}</t>
+  </si>
+  <si>
+    <t>collectProjectInfo_001</t>
+  </si>
+  <si>
+    <t>collectProjectInfo_success</t>
+  </si>
+  <si>
+    <t>index.php/C_Api/Index/collectProjectInfo</t>
+  </si>
+  <si>
+    <t>p_id=200a69872f24b2ff97be5026534829deNjgy&amp;type=6457975ff7c875a4c52f859fb4284ebdMg%3D%3D&amp;package_id=7d47e5e047b7e522b43a9d2131b61311MTIxMA%3D%3D</t>
+  </si>
+  <si>
+    <t>{
+ "code": 200,
+ "msg": "\u8bf7\u6c42\u6210\u529f",
+ "data": {
+  "stat": "\u4efb\u52a1\u72b6\u6001: \u6b63\u5f0f\u9879\u76ee",
+  "file_num": "\u4efb\u52a1\u6570\u91cf: 10",
+  "time": "\u9884\u8ba1\u7528\u65f6: 0 \u5206\u949f-5 \u5206\u949f",
+  "data_create_time": "\u5f00\u59cb\u65f6\u95f4: 2020-12-09",
+  "data_expire_time": "\u622a\u81f3\u65f6\u95f4: 2020-12-16",
+  "project_name": "\u9879\u76ee\u540d\u79f0: 1207003",
+  "qualified_rate": "\u5408\u683c\u7387: 80%",
+  "create_time": "\u5f00\u59cb\u65f6\u95f4: 2020-12-07",
+  "expire_time": "\u622a\u6b62\u65f6\u95f4: 2020-12-09",
+  "client_volume": "2",
+  "client_clipping": "2",
+  "client_segment": "2",
+  "client_volume_value": "0",
+  "client_clipping_value": "0",
+  "client_segment_value": "0"
+ }
+}</t>
+  </si>
+  <si>
+    <t>collectProjectInfo_002</t>
+  </si>
+  <si>
+    <t>collectProjectInfo_no_package_id</t>
+  </si>
+  <si>
+    <t>p_id=200a69872f24b2ff97be5026534829deNjgy&amp;type=6457975ff7c875a4c52f859fb4284ebdMg%3D%3D&amp;package_id=</t>
+  </si>
+  <si>
+    <t>{
+    "code": 301,
+    "msg": "package_id_参数不能为空",
+    "data": {}
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -274,6 +446,110 @@
       <color rgb="FF333333"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -286,21 +562,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -308,38 +569,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,45 +584,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -397,28 +591,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -429,85 +601,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,97 +763,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,6 +800,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -663,6 +844,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -677,17 +873,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,26 +892,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,10 +900,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -740,139 +912,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1246,30 +1421,30 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2777777777778" customWidth="1"/>
-    <col min="2" max="2" width="18.462962962963" customWidth="1"/>
-    <col min="3" max="3" width="40.1851851851852" customWidth="1"/>
-    <col min="4" max="4" width="38.8148148148148" customWidth="1"/>
-    <col min="6" max="6" width="15.9074074074074" customWidth="1"/>
-    <col min="7" max="7" width="27.537037037037" customWidth="1"/>
+    <col min="1" max="1" width="13.275" customWidth="1"/>
+    <col min="2" max="2" width="18.4666666666667" customWidth="1"/>
+    <col min="3" max="3" width="40.1833333333333" customWidth="1"/>
+    <col min="4" max="4" width="38.8166666666667" customWidth="1"/>
+    <col min="6" max="6" width="15.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.5333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1280,68 +1455,68 @@
       </c>
     </row>
     <row r="2" ht="138" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="110" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>100001</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="127" customHeight="1" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1359,73 +1534,73 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.9074074074074" customWidth="1"/>
-    <col min="2" max="2" width="26.9074074074074" customWidth="1"/>
-    <col min="3" max="4" width="28.1296296296296" customWidth="1"/>
-    <col min="5" max="5" width="22.1851851851852" customWidth="1"/>
+    <col min="1" max="1" width="22.9083333333333" customWidth="1"/>
+    <col min="2" max="2" width="26.9083333333333" customWidth="1"/>
+    <col min="3" max="4" width="28.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="22.1833333333333" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="22.6296296296296" customWidth="1"/>
+    <col min="7" max="7" width="22.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="212" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="81" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -1434,14 +1609,14 @@
       <c r="F3">
         <v>301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="3:7">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="G4" s="1"/>
+    <row r="4" ht="14.25" spans="3:7">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1458,80 +1633,80 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.3796296296296" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.3796296296296" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="2" customWidth="1"/>
+    <col min="5" max="7" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="259.2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="243" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="100.8" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row r="3" ht="94.5" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1550,78 +1725,78 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="25.1296296296296" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="7" width="25.1333333333333" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="100.8" spans="1:7">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="94.5" spans="1:7">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:7">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="81" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>1301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1636,53 +1811,143 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1296296296296" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="1" max="3" width="17.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.1333333333333" style="2" customWidth="1"/>
+    <col min="5" max="7" width="17.5" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="135" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" ht="135" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2">
+        <v>201</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="7" width="29.375" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="144" spans="1:7">
+    <row r="2" ht="409.5" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -1691,30 +1956,119 @@
         <v>200</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" ht="144" spans="1:7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="7" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>200</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>301</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="optionAgree" sheetId="9" r:id="rId5"/>
     <sheet name="getCollect" sheetId="10" r:id="rId6"/>
     <sheet name="collectProjectInfo" sheetId="11" r:id="rId7"/>
+    <sheet name="Info" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>case_no</t>
   </si>
@@ -253,7 +254,7 @@
     <t>getCollect_success</t>
   </si>
   <si>
-    <t>index.php/C_Api/Collect/getCollect</t>
+    <t>C_Api/Collect/getCollect</t>
   </si>
   <si>
     <t>user_id=a478d255da28e02871e95c50d8b4a1c3OQ%3D%3D&amp;p_id=200a69872f24b2ff97be5026534829deNjgy&amp;type=6457975ff7c875a4c52f859fb4284ebdMg%3D%3D&amp;phone_sn=c3779a4d53644e53778c721d6c175ce1MzU1NDAzMTA2MDI3MjAx</t>
@@ -416,24 +417,425 @@
     "data": {}
 }</t>
   </si>
+  <si>
+    <t>Info_001</t>
+  </si>
+  <si>
+    <t>Info_success</t>
+  </si>
+  <si>
+    <t>C_Api/Remind/Info</t>
+  </si>
+  <si>
+    <t>userid=9a738449f667989fc95fa9a6e5b50a67MTU=</t>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "msg": "ok",
+    "data": [
+        {
+            "p_id": "444",
+            "expire_time": "1584415276",
+            "project_name": "0310个人测试001",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "6",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "451",
+            "expire_time": "1584601463",
+            "project_name": "0311个人测试001",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "11",
+            "surplus_number": "6",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "458",
+            "expire_time": "1595303314",
+            "project_name": "长语音py全开",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "3",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "496",
+            "expire_time": "-1",
+            "project_name": "0423测试003",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "0",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "497",
+            "expire_time": "-1",
+            "project_name": "0423测试005",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "9",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "502",
+            "expire_time": "1588499557",
+            "project_name": "0426测试001",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "6",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "504",
+            "expire_time": "1588499625",
+            "project_name": "200条的测试",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "3",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "511",
+            "expire_time": "1588666224",
+            "project_name": "0428截幅002",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "6",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "512",
+            "expire_time": "-1",
+            "project_name": "0428测试001",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "7",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "513",
+            "expire_time": "-1",
+            "project_name": "0428测试002",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "7",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "523",
+            "expire_time": "1589336407",
+            "project_name": "0506测试001",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "5",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "545",
+            "expire_time": "1592987885",
+            "project_name": "0610测试长语音",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "4",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "546",
+            "expire_time": "1592983895",
+            "project_name": "0910测试3",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "100",
+            "surplus_number": "1",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "558",
+            "expire_time": "1592913893",
+            "project_name": "0616_2_测试",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "1",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "559",
+            "expire_time": "1592963903",
+            "project_name": "0616测试项目log记录",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "100",
+            "surplus_number": "5",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "573",
+            "expire_time": "1593137110",
+            "project_name": "0619-500条测试",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "100",
+            "surplus_number": "16",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "603",
+            "expire_time": "1595319723",
+            "project_name": "0714测试001",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "0",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "604",
+            "expire_time": "1595312877",
+            "project_name": "carter0714",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "5",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "607",
+            "expire_time": "1595311942",
+            "project_name": "0714测试006",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "0",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "611",
+            "expire_time": "1595313422",
+            "project_name": "0714测试007",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "0",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "617",
+            "expire_time": "1595476738",
+            "project_name": "瀚月测试",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "3",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "619",
+            "expire_time": "1596024254",
+            "project_name": "瀚月测试2",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "6",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "624",
+            "expire_time": "1598411094",
+            "project_name": "0813手动002",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "0",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "627",
+            "expire_time": "1598347261",
+            "project_name": "0813手动003",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "32",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "640",
+            "expire_time": "1598346848",
+            "project_name": "500自动002",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "3",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "643",
+            "expire_time": "1598412837",
+            "project_name": "0819手动003",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "10",
+            "surplus_number": "36",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "646",
+            "expire_time": "1598600792",
+            "project_name": "0820长001",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "0",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "651",
+            "expire_time": "1604301523",
+            "project_name": "1026长001",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "0",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "653",
+            "expire_time": "1604385349",
+            "project_name": "1027长001",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "0",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "657",
+            "expire_time": "1604386564",
+            "project_name": "1027长003",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "36",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "673",
+            "expire_time": "1607307740",
+            "project_name": "1103001",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "33",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "678",
+            "expire_time": "1607679247",
+            "project_name": "1204002",
+            "type": "21",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "36",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        },
+        {
+            "p_id": "681",
+            "expire_time": "1607913922",
+            "project_name": "1207002",
+            "type": "32",
+            "is_group": "2",
+            "task_price": "0",
+            "surplus_number": "35",
+            "is_token": "1",
+            "hour_time": "数据包已到期!"
+        }
+    ]
+}</t>
+  </si>
+  <si>
+    <t>Info_002</t>
+  </si>
+  <si>
+    <t>Info_userid_error</t>
+  </si>
+  <si>
+    <t>uesrid=1590000</t>
+  </si>
+  <si>
+    <t>userid=&gt;参数错误</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -449,13 +851,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -463,14 +858,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,53 +888,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,11 +924,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -586,7 +964,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,13 +1003,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +1099,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,151 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,6 +1194,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -809,36 +1226,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,6 +1262,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -884,11 +1280,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -900,168 +1302,171 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1435,16 +1840,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1455,68 +1860,68 @@
       </c>
     </row>
     <row r="2" ht="138" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="110" customHeight="1" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>100001</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="127" customHeight="1" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1545,62 +1950,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="212" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -1609,14 +2014,14 @@
       <c r="F3">
         <v>301</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="3:7">
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="G4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="G4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1630,83 +2035,83 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.3833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="2" customWidth="1"/>
-    <col min="5" max="7" width="17.3833333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="17.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.3833333333333" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="243" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>301</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1727,76 +2132,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="25.1333333333333" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="7" width="25.1333333333333" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>1301</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1811,84 +2216,84 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.1333333333333" style="2" customWidth="1"/>
-    <col min="5" max="7" width="17.5" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="3" width="17.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1333333333333" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="135" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>200</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="135" spans="1:7">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>201</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1903,36 +2308,36 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="29.375" style="1" customWidth="1"/>
+    <col min="1" max="7" width="29.3833333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1993,35 +2398,35 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="19.875" customWidth="1"/>
+    <col min="1" max="7" width="19.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2069,6 +2474,95 @@
       </c>
       <c r="G3" s="1" t="s">
         <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="7" width="24.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>201</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/babTest/testFile/case/userCase.xlsx
+++ b/babTest/testFile/case/userCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="22365" windowHeight="9300" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,16 @@
     <sheet name="getCollect" sheetId="10" r:id="rId6"/>
     <sheet name="collectProjectInfo" sheetId="11" r:id="rId7"/>
     <sheet name="Info" sheetId="12" r:id="rId8"/>
+    <sheet name="index" sheetId="13" r:id="rId9"/>
+    <sheet name="projectInfo" sheetId="14" r:id="rId10"/>
+    <sheet name="checkDataTime" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
   <si>
     <t>case_no</t>
   </si>
@@ -427,7 +430,7 @@
     <t>C_Api/Remind/Info</t>
   </si>
   <si>
-    <t>userid=9a738449f667989fc95fa9a6e5b50a67MTU=</t>
+    <t>userid=9a738449f667989fc95fa9a6e5b50a67MTU%3D</t>
   </si>
   <si>
     <t>{
@@ -807,10 +810,145 @@
     <t>Info_userid_error</t>
   </si>
   <si>
-    <t>uesrid=1590000</t>
+    <t>userid=9a738449f667989fc95fa9a6e5b50a67MTU%</t>
   </si>
   <si>
     <t>userid=&gt;参数错误</t>
+  </si>
+  <si>
+    <t>index_001</t>
+  </si>
+  <si>
+    <t>index_success</t>
+  </si>
+  <si>
+    <t>Api/projectInfo/index</t>
+  </si>
+  <si>
+    <t>p_id=7efd9a0ea2df17bea9d2e0ca58648587Njkw&amp;user_id=9a738449f667989fc95fa9a6e5b50a67MTU%3D</t>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "msg": "请求成功",
+    "data": {
+        "id": "690",
+        "dir_name": "GHG_new",
+        "project_name": "1222001",
+        "qualified_rate": "80",
+        "is_group": "2",
+        "task_price": "0酷币/任务",
+        "type": "21",
+        "surplus_number": "剩余1个任务",
+        "participate_number": "参与人数:1",
+        "number_require": "需要人数:40",
+        "base_require": "暂无要求",
+        "project_brief": "简介未填写",
+        "require_stat": "1",
+        "user_require": {
+            "gender": "不限制",
+            "age": "1-99",
+            "province": "不限制",
+            "occupation": "不限制",
+            "magic_score": "大于等于0"
+        },
+        "expire_time": "剩余224小时",
+        "token": "",
+        "video_path": "false",
+        "settlement": "当前项目“合格率:80%,您的合格率必须大于项目合格率才会给您结算，如果小于合格率您需要进行重新录制，如果您不进行重新录制您将无法获取酷比奖励",
+        "button_text": "立即报名",
+        "button_type": 1
+    }
+}</t>
+  </si>
+  <si>
+    <t>index_002</t>
+  </si>
+  <si>
+    <t>index_p_id_error</t>
+  </si>
+  <si>
+    <t>p_id=&amp;user_id=9a738449f667989fc95fa9a6e5b50a67MTU%3D</t>
+  </si>
+  <si>
+    <t>projectInfo_001</t>
+  </si>
+  <si>
+    <t>projectInfo_success</t>
+  </si>
+  <si>
+    <t>C_Api/projectProgress/projectInfo</t>
+  </si>
+  <si>
+    <t>user_id=9a738449f667989fc95fa9a6e5b50a67MTU%3D&amp;p_id=7efd9a0ea2df17bea9d2e0ca58648587Njkw</t>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "msg": "请求成功",
+    "data": {
+        "number_require": "需要人数:40",
+        "participate_number": "参与人数:2",
+        "stat": 7,
+        "is_test": "2",
+        "type": "21",
+        "expire_time": "1609430399",
+        "dir_name": "GHG_new",
+        "is_auto_upload": "2",
+        "is_multi_person_dialogue": "2",
+        "is_multi_person_dialogue_exist": "2",
+        "package_id": "",
+        "record_info_url": "http://test.speech.imagicdatatech.com//index.php/C_Api/Index/showProjectInfo/p_id/7efd9a0ea2df17bea9d2e0ca58648587Njkw/type/bfaf3510014ac930edc63a63546ad5f2MQ%3D%3D/agreement_stat/b0aad8991a20e2e6cd80333c20417865NQ%3D%3D.html",
+        "agree_stat": "3",
+        "notice_stat": 1
+    }
+}</t>
+  </si>
+  <si>
+    <t>projectInfo_002</t>
+  </si>
+  <si>
+    <t>projectInfo_user_id_null</t>
+  </si>
+  <si>
+    <t>user_id=&amp;p_id=7efd9a0ea2df17bea9d2e0ca58648587Njkw</t>
+  </si>
+  <si>
+    <t>{
+    "code": 301,
+    "msg": "user_id_参数不能为空",
+    "data": {}
+}</t>
+  </si>
+  <si>
+    <t>checkDataTime_001</t>
+  </si>
+  <si>
+    <t>checkDataTime_success</t>
+  </si>
+  <si>
+    <t>C_Api/Upload/checkDataTime</t>
+  </si>
+  <si>
+    <t>p_id=7efd9a0ea2df17bea9d2e0ca58648587Njkw&amp;package_id=851dcee4cae1faadc97352f3d4f23768MTIxNg%3D%3D&amp;type=6457975ff7c875a4c52f859fb4284ebdMg%3D%3D</t>
+  </si>
+  <si>
+    <t>{
+    "code": 200,
+    "msg": "正式项目包时间有效",
+    "data": {
+        "stat": 1
+    }
+}</t>
+  </si>
+  <si>
+    <t>checkDataTime_002</t>
+  </si>
+  <si>
+    <t>checkDataTime_p_id_null</t>
+  </si>
+  <si>
+    <t>p_id=&amp;package_id=851dcee4cae1faadc97352f3d4f23768MTIxNg%3D%3D&amp;type=6457975ff7c875a4c52f859fb4284ebdMg%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -818,10 +956,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -833,14 +971,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF505050"/>
-      <name val="Helvetica"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -850,8 +988,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,72 +1013,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,9 +1042,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -993,6 +1101,36 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1003,187 +1141,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,6 +1332,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1216,16 +1378,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,52 +1424,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1302,10 +1440,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,163 +1452,166 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1823,7 +1964,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
@@ -1840,16 +1981,16 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1860,72 +2001,251 @@
       </c>
     </row>
     <row r="2" ht="138" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" ht="110" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>100001</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="127" customHeight="1" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="8" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>301</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="7" width="31.375" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="108" spans="1:7">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:7">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>301</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1936,7 +2256,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1950,62 +2270,62 @@
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="212" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E3" t="s">
@@ -2014,14 +2334,14 @@
       <c r="F3">
         <v>301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="3:7">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="G4" s="1"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="G4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2035,83 +2355,83 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.3833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.25" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.3833333333333" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="17.3833333333333" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.25" style="4" customWidth="1"/>
+    <col min="5" max="7" width="17.3833333333333" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="243" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2132,76 +2452,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="25.1333333333333" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="7" width="25.1333333333333" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>1301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2216,84 +2536,84 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="17.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.1333333333333" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="17.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="29.1333333333333" style="4" customWidth="1"/>
+    <col min="5" max="7" width="17.5" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="135" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="135" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>201</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2314,76 +2634,76 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="29.3833333333333" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="7" width="29.3833333333333" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" ht="81" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2407,63 +2727,63 @@
     <col min="1" max="7" width="19.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:7">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>200</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E3" t="s">
@@ -2472,7 +2792,7 @@
       <c r="F3">
         <v>301</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2487,8 +2807,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -2496,26 +2816,26 @@
     <col min="1" max="7" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="4" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2538,7 +2858,7 @@
       <c r="F2">
         <v>200</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2559,10 +2879,100 @@
         <v>11</v>
       </c>
       <c r="F3">
-        <v>201</v>
-      </c>
-      <c r="G3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="7" width="28.5" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:7">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>301</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
